--- a/dotnet6-epha-api/wwwroot/AttachedFileTemp/HAZOP Recommendation Template.xlsx
+++ b/dotnet6-epha-api/wwwroot/AttachedFileTemp/HAZOP Recommendation Template.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet6-epha-api\dotnet6-epha-api\wwwroot\AttachedFileTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041D142B-0562-4699-BD95-F2F3127C1E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A03233-3B39-4BB2-838C-41199C12E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="2172" windowWidth="17280" windowHeight="8880" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TrackTemplate" sheetId="32" r:id="rId1"/>
-    <sheet name="SheetTemplate" sheetId="35" r:id="rId2"/>
+    <sheet name="RecommTemplate" sheetId="35" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">SheetTemplate!$A$1:$F$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">RecommTemplate!$A$1:$F$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TrackTemplate!$A$1:$F$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">SheetTemplate!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">RecommTemplate!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TrackTemplate!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -389,6 +389,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,6 +403,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -420,36 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA1EEAC-D17F-4C5A-BB42-E1220C115790}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -832,157 +832,157 @@
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="140.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="6" t="s">
         <v>1</v>
       </c>
@@ -991,34 +991,24 @@
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1031,6 +1021,16 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,235 +1051,13 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ActivityName xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <RefID xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <ApprovalStatus xmlns="90971145-0e3f-401e-a533-b224f340d0bb">Pending</ApprovalStatus>
-    <Workflow xmlns="90971145-0e3f-401e-a533-b224f340d0bb">Finished</Workflow>
-    <LockBy xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LockBy>
-    <WorkflowHistory xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <RelatedTo xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
-      <UserInfo>
-        <DisplayName>PTTDIGITAL-APP-Supaporn T</DisplayName>
-        <AccountId>25</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>PTTDIGITAL-APP-Supitchaya</DisplayName>
-        <AccountId>1727</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>s-MossFarmAdmin</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TOP QMQS (Act.) (Anchalee)</DisplayName>
-        <AccountId>43</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TOP QMQS-Chawlit</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TOP QMQS-Oranich</DisplayName>
-        <AccountId>2153</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TOP QMQS-PRTR-Pakphinya T.</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TOP QMQS-PRTR-Wanicha</DisplayName>
-        <AccountId>19</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>TOP QMTS (Sermsak)</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\zsupapornt</DisplayName>
-        <AccountId>25</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\zsupitchayas</DisplayName>
-        <AccountId>1727</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\s-mossfarmadmin</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\s-sp19adm</DisplayName>
-        <AccountId>2517</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\anchalee</DisplayName>
-        <AccountId>43</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\chawlit</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\oranich</DisplayName>
-        <AccountId>2153</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\zpakphinya</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\wanicha</DisplayName>
-        <AccountId>19</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\sermsak</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </RelatedTo>
-    <KnowledgeComments xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <LockDate xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <ApprovedDate xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <TaxCatchAll xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
-      <Value>67</Value>
-    </TaxCatchAll>
-    <DocumentType xmlns="90971145-0e3f-401e-a533-b224f340d0bb">Form</DocumentType>
-    <WFActions xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <Level1 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">S6.0 : Manage information, knowledge and system</Level1>
-    <Section xmlns="90971145-0e3f-401e-a533-b224f340d0bb">QMTS</Section>
-    <_Revision xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">00</_Revision>
-    <LinkToLaw xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </LinkToLaw>
-    <RefURL xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <Action xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <Level2 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">S6.2 Maintain QSSHE excellence</Level2>
-    <Activity xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <AreaName xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <UnitName xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <DocumentCode xmlns="90971145-0e3f-401e-a533-b224f340d0bb">QMTS-SFR-24</DocumentCode>
-    <IssuedDate xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <RevisedDate xmlns="90971145-0e3f-401e-a533-b224f340d0bb">2022-08-16T17:00:00+00:00</RevisedDate>
-    <ShareWithCompany xmlns="90971145-0e3f-401e-a533-b224f340d0bb">PTT</ShareWithCompany>
-    <ShareWithSpecificGroup xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ShareWithSpecificGroup>
-    <IsActive1 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">true</IsActive1>
-    <AmendmentRecord xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <ApprovedBy xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </ApprovedBy>
-    <AssignTo xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\zsupapornt</DisplayName>
-        <AccountId>25</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\zsupitchayas</DisplayName>
-        <AccountId>1727</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\s-mossfarmadmin</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\s-sp19adm</DisplayName>
-        <AccountId>2517</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\anchalee</DisplayName>
-        <AccountId>43</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\chawlit</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\oranich</DisplayName>
-        <AccountId>2153</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\zpakphinya</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\wanicha</DisplayName>
-        <AccountId>19</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\sermsak</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </AssignTo>
-    <KnowledgeStatus xmlns="90971145-0e3f-401e-a533-b224f340d0bb">Finished</KnowledgeStatus>
-    <Area xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <Unit xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <Department1 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">QMVP</Department1>
-    <System xmlns="90971145-0e3f-401e-a533-b224f340d0bb">TIS 18001</System>
-    <o3d8169c58294ff997d3d56a97d36e37 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">S6.2 Maintain QSSHE excellence</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c36b4e93-9fec-465c-a818-b3f2e1393b42</TermId>
-        </TermInfo>
-      </Terms>
-    </o3d8169c58294ff997d3d56a97d36e37>
-    <ShareWith xmlns="90971145-0e3f-401e-a533-b224f340d0bb">PTT Group</ShareWith>
-    <Owner xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
-      <UserInfo>
-        <DisplayName>i:0#.w|thaioilnt\sermsak</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Issued xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
-    <TechnicalDocument xmlns="90971145-0e3f-401e-a533-b224f340d0bb">true</TechnicalDocument>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1874,13 +1652,235 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ActivityName xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <RefID xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <ApprovalStatus xmlns="90971145-0e3f-401e-a533-b224f340d0bb">Pending</ApprovalStatus>
+    <Workflow xmlns="90971145-0e3f-401e-a533-b224f340d0bb">Finished</Workflow>
+    <LockBy xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LockBy>
+    <WorkflowHistory xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <RelatedTo xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
+      <UserInfo>
+        <DisplayName>PTTDIGITAL-APP-Supaporn T</DisplayName>
+        <AccountId>25</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>PTTDIGITAL-APP-Supitchaya</DisplayName>
+        <AccountId>1727</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>s-MossFarmAdmin</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TOP QMQS (Act.) (Anchalee)</DisplayName>
+        <AccountId>43</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TOP QMQS-Chawlit</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TOP QMQS-Oranich</DisplayName>
+        <AccountId>2153</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TOP QMQS-PRTR-Pakphinya T.</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TOP QMQS-PRTR-Wanicha</DisplayName>
+        <AccountId>19</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>TOP QMTS (Sermsak)</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\zsupapornt</DisplayName>
+        <AccountId>25</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\zsupitchayas</DisplayName>
+        <AccountId>1727</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\s-mossfarmadmin</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\s-sp19adm</DisplayName>
+        <AccountId>2517</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\anchalee</DisplayName>
+        <AccountId>43</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\chawlit</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\oranich</DisplayName>
+        <AccountId>2153</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\zpakphinya</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\wanicha</DisplayName>
+        <AccountId>19</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\sermsak</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </RelatedTo>
+    <KnowledgeComments xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <LockDate xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <ApprovedDate xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <TaxCatchAll xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
+      <Value>67</Value>
+    </TaxCatchAll>
+    <DocumentType xmlns="90971145-0e3f-401e-a533-b224f340d0bb">Form</DocumentType>
+    <WFActions xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <Level1 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">S6.0 : Manage information, knowledge and system</Level1>
+    <Section xmlns="90971145-0e3f-401e-a533-b224f340d0bb">QMTS</Section>
+    <_Revision xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">00</_Revision>
+    <LinkToLaw xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </LinkToLaw>
+    <RefURL xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <Action xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <Level2 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">S6.2 Maintain QSSHE excellence</Level2>
+    <Activity xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <AreaName xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <UnitName xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <DocumentCode xmlns="90971145-0e3f-401e-a533-b224f340d0bb">QMTS-SFR-24</DocumentCode>
+    <IssuedDate xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <RevisedDate xmlns="90971145-0e3f-401e-a533-b224f340d0bb">2022-08-16T17:00:00+00:00</RevisedDate>
+    <ShareWithCompany xmlns="90971145-0e3f-401e-a533-b224f340d0bb">PTT</ShareWithCompany>
+    <ShareWithSpecificGroup xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </ShareWithSpecificGroup>
+    <IsActive1 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">true</IsActive1>
+    <AmendmentRecord xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <ApprovedBy xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </ApprovedBy>
+    <AssignTo xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\zsupapornt</DisplayName>
+        <AccountId>25</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\zsupitchayas</DisplayName>
+        <AccountId>1727</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\s-mossfarmadmin</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\s-sp19adm</DisplayName>
+        <AccountId>2517</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\anchalee</DisplayName>
+        <AccountId>43</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\chawlit</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\oranich</DisplayName>
+        <AccountId>2153</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\zpakphinya</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\wanicha</DisplayName>
+        <AccountId>19</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\sermsak</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </AssignTo>
+    <KnowledgeStatus xmlns="90971145-0e3f-401e-a533-b224f340d0bb">Finished</KnowledgeStatus>
+    <Area xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <Unit xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <Department1 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">QMVP</Department1>
+    <System xmlns="90971145-0e3f-401e-a533-b224f340d0bb">TIS 18001</System>
+    <o3d8169c58294ff997d3d56a97d36e37 xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">S6.2 Maintain QSSHE excellence</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">c36b4e93-9fec-465c-a818-b3f2e1393b42</TermId>
+        </TermInfo>
+      </Terms>
+    </o3d8169c58294ff997d3d56a97d36e37>
+    <ShareWith xmlns="90971145-0e3f-401e-a533-b224f340d0bb">PTT Group</ShareWith>
+    <Owner xmlns="90971145-0e3f-401e-a533-b224f340d0bb">
+      <UserInfo>
+        <DisplayName>i:0#.w|thaioilnt\sermsak</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Issued xmlns="90971145-0e3f-401e-a533-b224f340d0bb" xsi:nil="true"/>
+    <TechnicalDocument xmlns="90971145-0e3f-401e-a533-b224f340d0bb">true</TechnicalDocument>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1892,12 +1892,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B36565D-48F5-4A14-839C-2DA862D8E795}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1BCF8DD-F64D-40E2-9E31-964B85018AAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90971145-0e3f-401e-a533-b224f340d0bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1923,9 +1920,12 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1BCF8DD-F64D-40E2-9E31-964B85018AAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B36565D-48F5-4A14-839C-2DA862D8E795}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90971145-0e3f-401e-a533-b224f340d0bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>